--- a/sheet/cardset_s7-2.xlsx
+++ b/sheet/cardset_s7-2.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="メガミ" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="メガミ" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,42 +20,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
-    <t xml:space="preserve">カードセットID</t>
+    <t>カードセットID</t>
   </si>
   <si>
-    <t xml:space="preserve">名前</t>
+    <t>名前</t>
   </si>
   <si>
-    <t xml:space="preserve">一覧表示名</t>
+    <t>一覧表示名</t>
   </si>
   <si>
-    <t xml:space="preserve">名前（中国語）</t>
+    <t>名前（中国語）</t>
   </si>
   <si>
-    <t xml:space="preserve">一覧表示名（中国語）</t>
+    <t>一覧表示名（中国語）</t>
   </si>
   <si>
-    <t xml:space="preserve">一覧表示名前（韓国語）</t>
+    <t>一覧表示名前（韓国語）</t>
   </si>
   <si>
-    <t xml:space="preserve">一覧表示名（韓国語）</t>
+    <t>一覧表示名（韓国語）</t>
   </si>
   <si>
-    <t xml:space="preserve">名前（英語）</t>
+    <t>名前（英語）</t>
   </si>
   <si>
-    <t xml:space="preserve">一覧表示名（英語）</t>
+    <t>一覧表示名（英語）</t>
   </si>
   <si>
-    <t xml:space="preserve">na-s2</t>
+    <t>na-s7-2</t>
   </si>
   <si>
-    <t xml:space="preserve">新幕 シーズン2</t>
+    <t>新幕 シーズン7-2</t>
   </si>
   <si>
-    <t xml:space="preserve">新幕 シーズン2 (2018/8/17～ 『第壱拡張：神語起譚』以降)</t>
+    <t>新幕 シーズン7-2 (2022/5/13～ 『第七拡張：徒桜団円』以降)</t>
   </si>
   <si>
     <r>
@@ -77,7 +76,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">赛</t>
+      <t>赛</t>
     </r>
     <r>
       <rPr>
@@ -87,11 +86,8 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">季2</t>
+      <t>季7-2</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 赛季2 (2018/8/17～ 『一扩：神语起谭』之后)</t>
   </si>
   <si>
     <r>
@@ -102,7 +98,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">신막</t>
+      <t>신막</t>
     </r>
     <r>
       <rPr>
@@ -122,7 +118,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">시즌</t>
+      <t>시즌</t>
     </r>
     <r>
       <rPr>
@@ -132,1075 +128,35 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">2</t>
+      <t>7-2</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">신막 시즌2 (2018/8/17～ 『제일 확장：신화기담』이후)</t>
+    <t>Shinmaku Season 7-2</t>
   </si>
   <si>
-    <t xml:space="preserve">Shinmaku Season 2</t>
+    <t>QA</t>
   </si>
   <si>
-    <t xml:space="preserve">Shinmaku Season 2 (Expansion 1 release, from 2018/8/17)</t>
+    <t>新幕 赛季7-2（2022/5/15～『7扩：徒樱团圆』之后）</t>
   </si>
   <si>
-    <t xml:space="preserve">na-s3</t>
+    <t>Shinmaku Season 7-2 (Expansion 6 release, from 2022/05/13)</t>
   </si>
   <si>
-    <t xml:space="preserve">新幕 シーズン3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 シーズン3 (2018/11/30～ 『第弐拡張：神語転晴』以降)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">新幕 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">赛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">季3</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 赛季3 (2018/11/30～ 『二扩：神语转晴』之后)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">신막</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">시즌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">신막 시즌3 (2018/11/30～ 『제이 확장：신화전청』이후)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shinmaku Season 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shinmaku Season 3 (Expansion 2 release, from 2018/11/30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">na-s4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 シーズン4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 シーズン4 (2019/6/7～ 『第参拡張：零限突破』以降)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">新幕 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">赛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">季4</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 赛季4 (2019/6/7～ 『三扩：零限突破』之后)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">신막</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">시즌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">신막 시즌4 (2019/6/7～ 『제삼 확장：영식돌파』이후)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shinmaku Season 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shinmaku Season 4 (Expansion 3 release, from 2019/6/6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">na-s5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 シーズン5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 シーズン5 (2019/11/23～ 『第四拡張：大洋航路』以降)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">新幕 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">赛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">季5</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 赛季5 (2019/11/23～ 『四扩：大洋航路』之后)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">신막</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">시즌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">신막 시즌5(2019/11/23 『제4확장：대양항로』이후)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shinmaku Season 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shinmaku Season 5 (Expansion 4 release, from 2019/11/23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">na-s6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 シーズン6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 シーズン6 (2020/9/11～ 『第伍拡張：異語邂逅』以降)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">新幕 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">赛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">季6</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 赛季6 (2020/9/11～ 『五扩：异语邂逅』之后)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">신막</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">시즌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">신막</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">시즌6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> (2020/9/11～ 『</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">제5확장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이어해후</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">』</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이후</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Shinmaku Season 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shinmaku Season 6 (Expansion 5 release, from 2020/9/11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">na-s6-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 シーズン6-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 シーズン6-2 (2021/2/1～)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">新幕 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">赛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">季6-2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 赛季6-2 (2021/2/1～)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">신막</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">시즌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">6-2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">신막 시즌6-2 (2021/2/1～)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shinmaku Season 6-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shinmaku Season 6-2 (from 2021/2/1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">na-s7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 シーズン7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 シーズン7 (2021/12/3～ 『第六拡張：失楽飛翔』以降)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">新幕 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">赛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">季7</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 赛季7 (2021/12/3～ 『六扩：失乐飞翔』之后)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">신막</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">시즌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">7</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">신막 시즌7 (2021/12/3～ 『제6확장：실락비상』이후)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shinmaku Season 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shinmaku Season 7 (2021/12/3-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">na-s7-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 シーズン7-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新幕 シーズン7-2 (2022/5/13～ 『第七拡張：徒桜団円』以降)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">新幕 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">赛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">季7-2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">신막</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">시즌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">7-2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Shinmaku Season 7-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">story-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物語0：神語りのはじまり</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物语0 神话的开端</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이야기0: 신화의 시작</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story 0: The Legend Begins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">story-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物語1：天音揺波 対 氷雨細音</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物语1 天音摇波 对 冰雨细音</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이야기1: 아마네 유리나 대 히사메 사이네</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story 1: Yurina Amane vs. Saine Hisame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">story-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物語2：龍ノ宮一志暗殺計画</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物语2 暗杀龙之宫一志计划</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이야기2: 타츠노미야 잇시 암살 계획</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story 2: The Assassination of Isshi Tatsunomiya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">story-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物語9：はじめての代理戦争</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物语9 最初的代理战争</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이야기9: 처음하는 대리 전쟁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story 9: The First Proxy War</t>
-  </si>
-  <si>
-    <t xml:space="preserve">story-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物語10：コルヌに挑戦！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物语10 挑战凝努！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이야기10: 코르누에게 도전!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story 10: Challenge Korunu!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">story-10-heroic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物語10：コルヌに挑戦！（英雄戦）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物语10 挑战凝努！（英雄战）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이야기10: 코르누에게 도전! (영웅전)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story 10: Challenge Korunu! (Heroic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">story-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物語12：徒神サイネに挑戦！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物语12 挑战徒神细音！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이야기12: 도신 사이네에게 도전!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story 12: Challenge Adagami Saine!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">story-12-heroic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物語12：徒神サイネに挑戦！（英雄戦）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物语12 挑战徒神细音！（英雄战）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이야기12: 도신 사이네에게 도전! (영웅전)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story 12: Challenge Adagami Saine! (Heroic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">story-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物語13：新幕トコヨに挑戦！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物语13 挑战新幕常世！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이야기13: 신막 토코요에게 도전!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story 13: Challenge Tokoyo!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">story-13-heroic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物語13：新幕トコヨに挑戦！（英雄戦）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物语13 挑战新幕常世！（英雄战）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이야기13: 신막 토코요에게 도전! (영웅전)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story 13: Challenge Tokoyo! (Heroic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">story-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物語15：彼女の挑戦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物语15 她的挑战</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이야기15: 그녀의 도전</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story 15: The Girl's Challenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hajimari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">はじまりの決闘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">はじまりの決闘（初心者向け）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oboro-challenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オボロへの挑戦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メガミへの挑戦　第1回：オボロへの挑戦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oboro-challenge-heroic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オボロへの挑戦（英雄戦）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メガミへの挑戦　第1回：オボロへの挑戦（英雄戦）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chikage-challenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">チカゲへの挑戦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メガミへの挑戦　第2回：チカゲへの挑戦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chikage-challenge-heroic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">チカゲへの挑戦（英雄戦）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メガミへの挑戦　第2回：チカゲへの挑戦（英雄戦）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raira-challenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライラへの挑戦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メガミへの挑戦　第3回：ライラへの挑戦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raira-challenge-heroic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライラへの挑戦（英雄戦）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メガミへの挑戦　第3回：ライラへの挑戦（英雄戦）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">megumi-challenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メグミへの挑戦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メガミへの挑戦　第4回：メグミへの挑戦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">megumi-challenge-heroic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メグミへの挑戦（英雄戦）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メガミへの挑戦　第4回：メグミへの挑戦（英雄戦）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shinra-challenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シンラへの挑戦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メガミへの挑戦　第5回：シンラへの挑戦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shinra-challenge-heroic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シンラへの挑戦（英雄戦）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メガミへの挑戦　第5回：シンラへの挑戦（英雄戦）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QA</t>
+    <t>신막 시즌7-2(2022/5/13~『제7확장：도앵단원』이후)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="General"/>
-  </numFmts>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="MS PGothic"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1251,11 +207,10 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
-      <charset val="129"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1273,7 +228,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1281,131 +236,365 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="常规 2" xfId="20"/>
-    <cellStyle name="標準 2" xfId="21"/>
-    <cellStyle name="標準 3" xfId="22"/>
-    <cellStyle name="標準 4" xfId="23"/>
+  <cellStyles count="5">
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 3" xfId="3"/>
+    <cellStyle name="標準 4" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:V972"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V943"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="37.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="10" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="12.62"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="46" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.375" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="38.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="1" customWidth="1"/>
+    <col min="10" max="22" width="6.875" customWidth="1"/>
+    <col min="23" max="1025" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:22" ht="11.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +636,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1460,24 +649,24 @@
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A2&amp;"': { name: '"&amp;B2&amp;"', listName: '"&amp;C2&amp;"', nameZh: '"&amp;D2&amp;"', listNameZh: '"&amp;E2&amp;"',nameKo: '"&amp;F2&amp;"', listNameKo: '"&amp;G2&amp;"',nameEn: '"&amp;H2&amp;"', listNameEn: '"&amp;I2&amp;"'}"</f>
-        <v>'na-s2': { name: '新幕 シーズン2', listName: '新幕 シーズン2 (2018/8/17～ 『第壱拡張：神語起譚』以降)', nameZh: '新幕 赛季2', listNameZh: '新幕 赛季2 (2018/8/17～ 『一扩：神语起谭』之后)',nameKo: '신막 시즌2', listNameKo: '신막 시즌2 (2018/8/17～ 『제일 확장：신화기담』이후)',nameEn: 'Shinmaku Season 2', listNameEn: 'Shinmaku Season 2 (Expansion 1 release, from 2018/8/17)'}</v>
+        <f t="shared" ref="J2" si="0">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A2&amp;"': { name: '"&amp;B2&amp;"', listName: '"&amp;C2&amp;"', nameZh: '"&amp;D2&amp;"', listNameZh: '"&amp;E2&amp;"',nameKo: '"&amp;F2&amp;"', listNameKo: '"&amp;G2&amp;"',nameEn: '"&amp;H2&amp;"', listNameEn: '"&amp;I2&amp;"'}"</f>
+        <v>'na-s7-2': { name: '新幕 シーズン7-2', listName: '新幕 シーズン7-2 (2022/5/13～ 『第七拡張：徒桜団円』以降)', nameZh: '新幕 赛季7-2', listNameZh: '新幕 赛季7-2（2022/5/15～『7扩：徒樱团圆』之后）',nameKo: '신막 시즌7-2', listNameKo: '신막 시즌7-2(2022/5/13~『제7확장：도앵단원』이후)',nameEn: 'Shinmaku Season 7-2', listNameEn: 'Shinmaku Season 7-2 (Expansion 6 release, from 2022/05/13)'}</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1492,38 +681,17 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A3&amp;"': { name: '"&amp;B3&amp;"', listName: '"&amp;C3&amp;"', nameZh: '"&amp;D3&amp;"', listNameZh: '"&amp;E3&amp;"',nameKo: '"&amp;F3&amp;"', listNameKo: '"&amp;G3&amp;"',nameEn: '"&amp;H3&amp;"', listNameEn: '"&amp;I3&amp;"'}"</f>
-        <v>, 'na-s3': { name: '新幕 シーズン3', listName: '新幕 シーズン3 (2018/11/30～ 『第弐拡張：神語転晴』以降)', nameZh: '新幕 赛季3', listNameZh: '新幕 赛季3 (2018/11/30～ 『二扩：神语转晴』之后)',nameKo: '신막 시즌3', listNameKo: '신막 시즌3 (2018/11/30～ 『제이 확장：신화전청』이후)',nameEn: 'Shinmaku Season 3', listNameEn: 'Shinmaku Season 3 (Expansion 2 release, from 2018/11/30)'}</v>
-      </c>
+    <row r="3" spans="1:22" ht="12" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -1537,38 +705,17 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A4&amp;"': { name: '"&amp;B4&amp;"', listName: '"&amp;C4&amp;"', nameZh: '"&amp;D4&amp;"', listNameZh: '"&amp;E4&amp;"',nameKo: '"&amp;F4&amp;"', listNameKo: '"&amp;G4&amp;"',nameEn: '"&amp;H4&amp;"', listNameEn: '"&amp;I4&amp;"'}"</f>
-        <v>, 'na-s4': { name: '新幕 シーズン4', listName: '新幕 シーズン4 (2019/6/7～ 『第参拡張：零限突破』以降)', nameZh: '新幕 赛季4', listNameZh: '新幕 赛季4 (2019/6/7～ 『三扩：零限突破』之后)',nameKo: '신막 시즌4', listNameKo: '신막 시즌4 (2019/6/7～ 『제삼 확장：영식돌파』이후)',nameEn: 'Shinmaku Season 4', listNameEn: 'Shinmaku Season 4 (Expansion 3 release, from 2019/6/6)'}</v>
-      </c>
+    <row r="4" spans="1:22" ht="12" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1582,38 +729,17 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A5&amp;"': { name: '"&amp;B5&amp;"', listName: '"&amp;C5&amp;"', nameZh: '"&amp;D5&amp;"', listNameZh: '"&amp;E5&amp;"',nameKo: '"&amp;F5&amp;"', listNameKo: '"&amp;G5&amp;"',nameEn: '"&amp;H5&amp;"', listNameEn: '"&amp;I5&amp;"'}"</f>
-        <v>, 'na-s5': { name: '新幕 シーズン5', listName: '新幕 シーズン5 (2019/11/23～ 『第四拡張：大洋航路』以降)', nameZh: '新幕 赛季5', listNameZh: '新幕 赛季5 (2019/11/23～ 『四扩：大洋航路』之后)',nameKo: '신막 시즌5', listNameKo: '신막 시즌5(2019/11/23 『제4확장：대양항로』이후)',nameEn: 'Shinmaku Season 5', listNameEn: 'Shinmaku Season 5 (Expansion 4 release, from 2019/11/23)'}</v>
-      </c>
+    <row r="5" spans="1:22" ht="12" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1627,38 +753,17 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A6&amp;"': { name: '"&amp;B6&amp;"', listName: '"&amp;C6&amp;"', nameZh: '"&amp;D6&amp;"', listNameZh: '"&amp;E6&amp;"',nameKo: '"&amp;F6&amp;"', listNameKo: '"&amp;G6&amp;"',nameEn: '"&amp;H6&amp;"', listNameEn: '"&amp;I6&amp;"'}"</f>
-        <v>, 'na-s6': { name: '新幕 シーズン6', listName: '新幕 シーズン6 (2020/9/11～ 『第伍拡張：異語邂逅』以降)', nameZh: '新幕 赛季6', listNameZh: '新幕 赛季6 (2020/9/11～ 『五扩：异语邂逅』之后)',nameKo: '신막 시즌6', listNameKo: '신막 시즌6 (2020/9/11～ 『제5확장：이어해후』이후)',nameEn: 'Shinmaku Season 6', listNameEn: 'Shinmaku Season 6 (Expansion 5 release, from 2020/9/11)'}</v>
-      </c>
+    <row r="6" spans="1:22" ht="12" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1672,38 +777,17 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A7&amp;"': { name: '"&amp;B7&amp;"', listName: '"&amp;C7&amp;"', nameZh: '"&amp;D7&amp;"', listNameZh: '"&amp;E7&amp;"',nameKo: '"&amp;F7&amp;"', listNameKo: '"&amp;G7&amp;"',nameEn: '"&amp;H7&amp;"', listNameEn: '"&amp;I7&amp;"'}"</f>
-        <v>, 'na-s6-2': { name: '新幕 シーズン6-2', listName: '新幕 シーズン6-2 (2021/2/1～)', nameZh: '新幕 赛季6-2', listNameZh: '新幕 赛季6-2 (2021/2/1～)',nameKo: '신막 시즌6-2', listNameKo: '신막 시즌6-2 (2021/2/1～)',nameEn: 'Shinmaku Season 6-2', listNameEn: 'Shinmaku Season 6-2 (from 2021/2/1)'}</v>
-      </c>
+    <row r="7" spans="1:22" ht="12" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1717,38 +801,17 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A8&amp;"': { name: '"&amp;B8&amp;"', listName: '"&amp;C8&amp;"', nameZh: '"&amp;D8&amp;"', listNameZh: '"&amp;E8&amp;"',nameKo: '"&amp;F8&amp;"', listNameKo: '"&amp;G8&amp;"',nameEn: '"&amp;H8&amp;"', listNameEn: '"&amp;I8&amp;"'}"</f>
-        <v>, 'na-s7': { name: '新幕 シーズン7', listName: '新幕 シーズン7 (2021/12/3～ 『第六拡張：失楽飛翔』以降)', nameZh: '新幕 赛季7', listNameZh: '新幕 赛季7 (2021/12/3～ 『六扩：失乐飞翔』之后)',nameKo: '신막 시즌7', listNameKo: '신막 시즌7 (2021/12/3～ 『제6확장：실락비상』이후)',nameEn: 'Shinmaku Season 7', listNameEn: 'Shinmaku Season 7 (2021/12/3-)'}</v>
-      </c>
+    <row r="8" spans="1:22" ht="12" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1762,32 +825,17 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A9&amp;"': { name: '"&amp;B9&amp;"', listName: '"&amp;C9&amp;"', nameZh: '"&amp;D9&amp;"', listNameZh: '"&amp;E9&amp;"',nameKo: '"&amp;F9&amp;"', listNameKo: '"&amp;G9&amp;"',nameEn: '"&amp;H9&amp;"', listNameEn: '"&amp;I9&amp;"'}"</f>
-        <v>, 'na-s7-2': { name: '新幕 シーズン7-2', listName: '新幕 シーズン7-2 (2022/5/13～ 『第七拡張：徒桜団円』以降)', nameZh: '新幕 赛季7-2', listNameZh: '',nameKo: '신막 시즌7-2', listNameKo: '',nameEn: 'Shinmaku Season 7-2', listNameEn: ''}</v>
-      </c>
+    <row r="9" spans="1:22" ht="12" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1801,38 +849,17 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A10&amp;"': { name: '"&amp;B10&amp;"', listName: '"&amp;C10&amp;"', nameZh: '"&amp;D10&amp;"', listNameZh: '"&amp;E10&amp;"',nameKo: '"&amp;F10&amp;"', listNameKo: '"&amp;G10&amp;"',nameEn: '"&amp;H10&amp;"', listNameEn: '"&amp;I10&amp;"'}"</f>
-        <v>, 'story-0': { name: '物語0：神語りのはじまり', listName: '物語0：神語りのはじまり', nameZh: '物语0 神话的开端', listNameZh: '物语0 神话的开端',nameKo: '이야기0: 신화의 시작', listNameKo: '이야기0: 신화의 시작',nameEn: 'Story 0: The Legend Begins', listNameEn: 'Story 0: The Legend Begins'}</v>
-      </c>
+    <row r="10" spans="1:22" ht="12" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1846,38 +873,17 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A11&amp;"': { name: '"&amp;B11&amp;"', listName: '"&amp;C11&amp;"', nameZh: '"&amp;D11&amp;"', listNameZh: '"&amp;E11&amp;"',nameKo: '"&amp;F11&amp;"', listNameKo: '"&amp;G11&amp;"',nameEn: '"&amp;H11&amp;"', listNameEn: '"&amp;I11&amp;"'}"</f>
-        <v>, 'story-1': { name: '物語1：天音揺波 対 氷雨細音', listName: '物語1：天音揺波 対 氷雨細音', nameZh: '物语1 天音摇波 对 冰雨细音', listNameZh: '物语1 天音摇波 对 冰雨细音',nameKo: '이야기1: 아마네 유리나 대 히사메 사이네', listNameKo: '이야기1: 아마네 유리나 대 히사메 사이네',nameEn: 'Story 1: Yurina Amane vs. Saine Hisame', listNameEn: 'Story 1: Yurina Amane vs. Saine Hisame'}</v>
-      </c>
+    <row r="11" spans="1:22" ht="12" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1891,38 +897,17 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A12&amp;"': { name: '"&amp;B12&amp;"', listName: '"&amp;C12&amp;"', nameZh: '"&amp;D12&amp;"', listNameZh: '"&amp;E12&amp;"',nameKo: '"&amp;F12&amp;"', listNameKo: '"&amp;G12&amp;"',nameEn: '"&amp;H12&amp;"', listNameEn: '"&amp;I12&amp;"'}"</f>
-        <v>, 'story-2': { name: '物語2：龍ノ宮一志暗殺計画', listName: '物語2：龍ノ宮一志暗殺計画', nameZh: '物语2 暗杀龙之宫一志计划', listNameZh: '物语2 暗杀龙之宫一志计划',nameKo: '이야기2: 타츠노미야 잇시 암살 계획', listNameKo: '이야기2: 타츠노미야 잇시 암살 계획',nameEn: 'Story 2: The Assassination of Isshi Tatsunomiya', listNameEn: 'Story 2: The Assassination of Isshi Tatsunomiya'}</v>
-      </c>
+    <row r="12" spans="1:22" ht="25.5" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1936,38 +921,17 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A13&amp;"': { name: '"&amp;B13&amp;"', listName: '"&amp;C13&amp;"', nameZh: '"&amp;D13&amp;"', listNameZh: '"&amp;E13&amp;"',nameKo: '"&amp;F13&amp;"', listNameKo: '"&amp;G13&amp;"',nameEn: '"&amp;H13&amp;"', listNameEn: '"&amp;I13&amp;"'}"</f>
-        <v>, 'story-9': { name: '物語9：はじめての代理戦争', listName: '物語9：はじめての代理戦争', nameZh: '物语9 最初的代理战争', listNameZh: '物语9 最初的代理战争',nameKo: '이야기9: 처음하는 대리 전쟁', listNameKo: '이야기9: 처음하는 대리 전쟁',nameEn: 'Story 9: The First Proxy War', listNameEn: 'Story 9: The First Proxy War'}</v>
-      </c>
+    <row r="13" spans="1:22" ht="12" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1981,38 +945,17 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J14" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A14&amp;"': { name: '"&amp;B14&amp;"', listName: '"&amp;C14&amp;"', nameZh: '"&amp;D14&amp;"', listNameZh: '"&amp;E14&amp;"',nameKo: '"&amp;F14&amp;"', listNameKo: '"&amp;G14&amp;"',nameEn: '"&amp;H14&amp;"', listNameEn: '"&amp;I14&amp;"'}"</f>
-        <v>, 'story-10': { name: '物語10：コルヌに挑戦！', listName: '物語10：コルヌに挑戦！', nameZh: '物语10 挑战凝努！', listNameZh: '物语10 挑战凝努！',nameKo: '이야기10: 코르누에게 도전!', listNameKo: '이야기10: 코르누에게 도전!',nameEn: 'Story 10: Challenge Korunu!', listNameEn: 'Story 10: Challenge Korunu!'}</v>
-      </c>
+    <row r="14" spans="1:22" ht="12" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2026,38 +969,17 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A15&amp;"': { name: '"&amp;B15&amp;"', listName: '"&amp;C15&amp;"', nameZh: '"&amp;D15&amp;"', listNameZh: '"&amp;E15&amp;"',nameKo: '"&amp;F15&amp;"', listNameKo: '"&amp;G15&amp;"',nameEn: '"&amp;H15&amp;"', listNameEn: '"&amp;I15&amp;"'}"</f>
-        <v>, 'story-10-heroic': { name: '物語10：コルヌに挑戦！（英雄戦）', listName: '物語10：コルヌに挑戦！（英雄戦）', nameZh: '物语10 挑战凝努！（英雄战）', listNameZh: '物语10 挑战凝努！（英雄战）',nameKo: '이야기10: 코르누에게 도전! (영웅전)', listNameKo: '이야기10: 코르누에게 도전! (영웅전)',nameEn: 'Story 10: Challenge Korunu! (Heroic)', listNameEn: 'Story 10: Challenge Korunu! (Heroic)'}</v>
-      </c>
+    <row r="15" spans="1:22" ht="12" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2071,38 +993,17 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J16" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A16&amp;"': { name: '"&amp;B16&amp;"', listName: '"&amp;C16&amp;"', nameZh: '"&amp;D16&amp;"', listNameZh: '"&amp;E16&amp;"',nameKo: '"&amp;F16&amp;"', listNameKo: '"&amp;G16&amp;"',nameEn: '"&amp;H16&amp;"', listNameEn: '"&amp;I16&amp;"'}"</f>
-        <v>, 'story-12': { name: '物語12：徒神サイネに挑戦！', listName: '物語12：徒神サイネに挑戦！', nameZh: '物语12 挑战徒神细音！', listNameZh: '物语12 挑战徒神细音！',nameKo: '이야기12: 도신 사이네에게 도전!', listNameKo: '이야기12: 도신 사이네에게 도전!',nameEn: 'Story 12: Challenge Adagami Saine!', listNameEn: 'Story 12: Challenge Adagami Saine!'}</v>
-      </c>
+    <row r="16" spans="1:22" ht="12" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -2116,38 +1017,17 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J17" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A17&amp;"': { name: '"&amp;B17&amp;"', listName: '"&amp;C17&amp;"', nameZh: '"&amp;D17&amp;"', listNameZh: '"&amp;E17&amp;"',nameKo: '"&amp;F17&amp;"', listNameKo: '"&amp;G17&amp;"',nameEn: '"&amp;H17&amp;"', listNameEn: '"&amp;I17&amp;"'}"</f>
-        <v>, 'story-12-heroic': { name: '物語12：徒神サイネに挑戦！（英雄戦）', listName: '物語12：徒神サイネに挑戦！（英雄戦）', nameZh: '物语12 挑战徒神细音！（英雄战）', listNameZh: '物语12 挑战徒神细音！（英雄战）',nameKo: '이야기12: 도신 사이네에게 도전! (영웅전)', listNameKo: '이야기12: 도신 사이네에게 도전! (영웅전)',nameEn: 'Story 12: Challenge Adagami Saine! (Heroic)', listNameEn: 'Story 12: Challenge Adagami Saine! (Heroic)'}</v>
-      </c>
+    <row r="17" spans="1:22" ht="12" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -2161,38 +1041,17 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J18" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A18&amp;"': { name: '"&amp;B18&amp;"', listName: '"&amp;C18&amp;"', nameZh: '"&amp;D18&amp;"', listNameZh: '"&amp;E18&amp;"',nameKo: '"&amp;F18&amp;"', listNameKo: '"&amp;G18&amp;"',nameEn: '"&amp;H18&amp;"', listNameEn: '"&amp;I18&amp;"'}"</f>
-        <v>, 'story-13': { name: '物語13：新幕トコヨに挑戦！', listName: '物語13：新幕トコヨに挑戦！', nameZh: '物语13 挑战新幕常世！', listNameZh: '物语13 挑战新幕常世！',nameKo: '이야기13: 신막 토코요에게 도전!', listNameKo: '이야기13: 신막 토코요에게 도전!',nameEn: 'Story 13: Challenge Tokoyo!', listNameEn: 'Story 13: Challenge Tokoyo!'}</v>
-      </c>
+    <row r="18" spans="1:22" ht="12" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -2206,38 +1065,17 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J19" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A19&amp;"': { name: '"&amp;B19&amp;"', listName: '"&amp;C19&amp;"', nameZh: '"&amp;D19&amp;"', listNameZh: '"&amp;E19&amp;"',nameKo: '"&amp;F19&amp;"', listNameKo: '"&amp;G19&amp;"',nameEn: '"&amp;H19&amp;"', listNameEn: '"&amp;I19&amp;"'}"</f>
-        <v>, 'story-13-heroic': { name: '物語13：新幕トコヨに挑戦！（英雄戦）', listName: '物語13：新幕トコヨに挑戦！（英雄戦）', nameZh: '物语13 挑战新幕常世！（英雄战）', listNameZh: '物语13 挑战新幕常世！（英雄战）',nameKo: '이야기13: 신막 토코요에게 도전! (영웅전)', listNameKo: '이야기13: 신막 토코요에게 도전! (영웅전)',nameEn: 'Story 13: Challenge Tokoyo! (Heroic)', listNameEn: 'Story 13: Challenge Tokoyo! (Heroic)'}</v>
-      </c>
+    <row r="19" spans="1:22" ht="12" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -2251,38 +1089,17 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J20" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A20&amp;"': { name: '"&amp;B20&amp;"', listName: '"&amp;C20&amp;"', nameZh: '"&amp;D20&amp;"', listNameZh: '"&amp;E20&amp;"',nameKo: '"&amp;F20&amp;"', listNameKo: '"&amp;G20&amp;"',nameEn: '"&amp;H20&amp;"', listNameEn: '"&amp;I20&amp;"'}"</f>
-        <v>, 'story-15': { name: '物語15：彼女の挑戦', listName: '物語15：彼女の挑戦', nameZh: '物语15 她的挑战', listNameZh: '物语15 她的挑战',nameKo: '이야기15: 그녀의 도전', listNameKo: '이야기15: 그녀의 도전',nameEn: 'Story 15: The Girl's Challenge', listNameEn: 'Story 15: The Girl's Challenge'}</v>
-      </c>
+    <row r="20" spans="1:22" ht="12" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2296,26 +1113,17 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>135</v>
-      </c>
+    <row r="21" spans="1:22" ht="12" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A21&amp;"': { name: '"&amp;B21&amp;"', listName: '"&amp;C21&amp;"', nameZh: '"&amp;D21&amp;"', listNameZh: '"&amp;E21&amp;"',nameKo: '"&amp;F21&amp;"', listNameKo: '"&amp;G21&amp;"',nameEn: '"&amp;H21&amp;"', listNameEn: '"&amp;I21&amp;"'}"</f>
-        <v>, 'hajimari': { name: 'はじまりの決闘', listName: 'はじまりの決闘（初心者向け）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -2329,26 +1137,17 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>138</v>
-      </c>
+    <row r="22" spans="1:22" ht="12" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A22&amp;"': { name: '"&amp;B22&amp;"', listName: '"&amp;C22&amp;"', nameZh: '"&amp;D22&amp;"', listNameZh: '"&amp;E22&amp;"',nameKo: '"&amp;F22&amp;"', listNameKo: '"&amp;G22&amp;"',nameEn: '"&amp;H22&amp;"', listNameEn: '"&amp;I22&amp;"'}"</f>
-        <v>, 'oboro-challenge': { name: 'オボロへの挑戦', listName: 'メガミへの挑戦　第1回：オボロへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -2362,26 +1161,17 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>141</v>
-      </c>
+    <row r="23" spans="1:22" ht="12" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A23&amp;"': { name: '"&amp;B23&amp;"', listName: '"&amp;C23&amp;"', nameZh: '"&amp;D23&amp;"', listNameZh: '"&amp;E23&amp;"',nameKo: '"&amp;F23&amp;"', listNameKo: '"&amp;G23&amp;"',nameEn: '"&amp;H23&amp;"', listNameEn: '"&amp;I23&amp;"'}"</f>
-        <v>, 'oboro-challenge-heroic': { name: 'オボロへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第1回：オボロへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -2395,26 +1185,17 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>144</v>
-      </c>
+    <row r="24" spans="1:22" ht="12" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A24&amp;"': { name: '"&amp;B24&amp;"', listName: '"&amp;C24&amp;"', nameZh: '"&amp;D24&amp;"', listNameZh: '"&amp;E24&amp;"',nameKo: '"&amp;F24&amp;"', listNameKo: '"&amp;G24&amp;"',nameEn: '"&amp;H24&amp;"', listNameEn: '"&amp;I24&amp;"'}"</f>
-        <v>, 'chikage-challenge': { name: 'チカゲへの挑戦', listName: 'メガミへの挑戦　第2回：チカゲへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2428,26 +1209,17 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>147</v>
-      </c>
+    <row r="25" spans="1:22" ht="12" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A25&amp;"': { name: '"&amp;B25&amp;"', listName: '"&amp;C25&amp;"', nameZh: '"&amp;D25&amp;"', listNameZh: '"&amp;E25&amp;"',nameKo: '"&amp;F25&amp;"', listNameKo: '"&amp;G25&amp;"',nameEn: '"&amp;H25&amp;"', listNameEn: '"&amp;I25&amp;"'}"</f>
-        <v>, 'chikage-challenge-heroic': { name: 'チカゲへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第2回：チカゲへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -2461,26 +1233,17 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
     </row>
-    <row r="26" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>150</v>
-      </c>
+    <row r="26" spans="1:22" ht="12" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A26&amp;"': { name: '"&amp;B26&amp;"', listName: '"&amp;C26&amp;"', nameZh: '"&amp;D26&amp;"', listNameZh: '"&amp;E26&amp;"',nameKo: '"&amp;F26&amp;"', listNameKo: '"&amp;G26&amp;"',nameEn: '"&amp;H26&amp;"', listNameEn: '"&amp;I26&amp;"'}"</f>
-        <v>, 'raira-challenge': { name: 'ライラへの挑戦', listName: 'メガミへの挑戦　第3回：ライラへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -2494,26 +1257,17 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
     </row>
-    <row r="27" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>153</v>
-      </c>
+    <row r="27" spans="1:22" ht="12" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A27&amp;"': { name: '"&amp;B27&amp;"', listName: '"&amp;C27&amp;"', nameZh: '"&amp;D27&amp;"', listNameZh: '"&amp;E27&amp;"',nameKo: '"&amp;F27&amp;"', listNameKo: '"&amp;G27&amp;"',nameEn: '"&amp;H27&amp;"', listNameEn: '"&amp;I27&amp;"'}"</f>
-        <v>, 'raira-challenge-heroic': { name: 'ライラへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第3回：ライラへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2527,26 +1281,17 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
     </row>
-    <row r="28" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>156</v>
-      </c>
+    <row r="28" spans="1:22" ht="12" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A28&amp;"': { name: '"&amp;B28&amp;"', listName: '"&amp;C28&amp;"', nameZh: '"&amp;D28&amp;"', listNameZh: '"&amp;E28&amp;"',nameKo: '"&amp;F28&amp;"', listNameKo: '"&amp;G28&amp;"',nameEn: '"&amp;H28&amp;"', listNameEn: '"&amp;I28&amp;"'}"</f>
-        <v>, 'megumi-challenge': { name: 'メグミへの挑戦', listName: 'メガミへの挑戦　第4回：メグミへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -2560,26 +1305,17 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
     </row>
-    <row r="29" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>159</v>
-      </c>
+    <row r="29" spans="1:22" ht="12" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A29&amp;"': { name: '"&amp;B29&amp;"', listName: '"&amp;C29&amp;"', nameZh: '"&amp;D29&amp;"', listNameZh: '"&amp;E29&amp;"',nameKo: '"&amp;F29&amp;"', listNameKo: '"&amp;G29&amp;"',nameEn: '"&amp;H29&amp;"', listNameEn: '"&amp;I29&amp;"'}"</f>
-        <v>, 'megumi-challenge-heroic': { name: 'メグミへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第4回：メグミへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -2593,26 +1329,17 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
     </row>
-    <row r="30" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="30" spans="1:22" ht="12" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A30&amp;"': { name: '"&amp;B30&amp;"', listName: '"&amp;C30&amp;"', nameZh: '"&amp;D30&amp;"', listNameZh: '"&amp;E30&amp;"',nameKo: '"&amp;F30&amp;"', listNameKo: '"&amp;G30&amp;"',nameEn: '"&amp;H30&amp;"', listNameEn: '"&amp;I30&amp;"'}"</f>
-        <v>, 'shinra-challenge': { name: 'シンラへの挑戦', listName: 'メガミへの挑戦　第5回：シンラへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -2626,26 +1353,17 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
     </row>
-    <row r="31" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>165</v>
-      </c>
+    <row r="31" spans="1:22" ht="12" customHeight="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="5" t="str">
-        <f aca="false">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A31&amp;"': { name: '"&amp;B31&amp;"', listName: '"&amp;C31&amp;"', nameZh: '"&amp;D31&amp;"', listNameZh: '"&amp;E31&amp;"',nameKo: '"&amp;F31&amp;"', listNameKo: '"&amp;G31&amp;"',nameEn: '"&amp;H31&amp;"', listNameEn: '"&amp;I31&amp;"'}"</f>
-        <v>, 'shinra-challenge-heroic': { name: 'シンラへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第5回：シンラへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -2659,7 +1377,7 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:22" ht="12" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2683,7 +1401,7 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:22" ht="12" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2707,7 +1425,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:22" ht="12" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2731,7 +1449,7 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:22" ht="12" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2755,7 +1473,7 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:22" ht="12" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2779,7 +1497,7 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:22" ht="12" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2803,7 +1521,7 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:22" ht="12" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2827,7 +1545,7 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:22" ht="12" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2851,7 +1569,7 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:22" ht="12" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2875,7 +1593,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:22" ht="12" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2899,7 +1617,7 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:22" ht="12" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2923,7 +1641,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:22" ht="12" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2947,7 +1665,7 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:22" ht="12" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2971,7 +1689,7 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:22" ht="12" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2995,7 +1713,7 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:22" ht="12" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3019,7 +1737,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:22" ht="12" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3043,7 +1761,7 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:22" ht="12" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3067,7 +1785,7 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
     </row>
-    <row r="49" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:22" ht="12" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3091,7 +1809,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:22" ht="12" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3115,7 +1833,7 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:22" ht="12" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3139,7 +1857,7 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:22" ht="12" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3163,7 +1881,7 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:22" ht="12" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3187,7 +1905,7 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:22" ht="12" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3211,7 +1929,7 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:22" ht="12" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3235,7 +1953,7 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:22" ht="12" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3259,7 +1977,7 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:22" ht="12" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3283,7 +2001,7 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:22" ht="12" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3307,7 +2025,7 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:22" ht="12" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3331,7 +2049,7 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:22" ht="12" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3355,7 +2073,7 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:22" ht="12" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3379,7 +2097,7 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:22" ht="12" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3403,7 +2121,7 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:22" ht="12" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3427,7 +2145,7 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:22" ht="12" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3451,7 +2169,7 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:22" ht="12" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3475,7 +2193,7 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:22" ht="12" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3499,7 +2217,7 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:22" ht="12" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3523,7 +2241,7 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:22" ht="12" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3547,7 +2265,7 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
     </row>
-    <row r="69" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:22" ht="12" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3571,7 +2289,7 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:22" ht="12" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3595,7 +2313,7 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
     </row>
-    <row r="71" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:22" ht="12" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3619,7 +2337,7 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
     </row>
-    <row r="72" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:22" ht="12" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3643,7 +2361,7 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
     </row>
-    <row r="73" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:22" ht="12" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3667,7 +2385,7 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
     </row>
-    <row r="74" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:22" ht="12" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3691,7 +2409,7 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
     </row>
-    <row r="75" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:22" ht="12" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3715,7 +2433,7 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:22" ht="12" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3739,7 +2457,7 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:22" ht="12" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3763,7 +2481,7 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:22" ht="12" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3787,7 +2505,7 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:22" ht="12" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3811,7 +2529,7 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:22" ht="12" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3835,7 +2553,7 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:22" ht="12" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3859,7 +2577,7 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:22" ht="12" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3883,7 +2601,7 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:22" ht="12" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3907,7 +2625,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
     </row>
-    <row r="84" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:22" ht="13.5" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3931,7 +2649,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
     </row>
-    <row r="85" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:22" ht="12" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3955,7 +2673,7 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
     </row>
-    <row r="86" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:22" ht="12" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3979,7 +2697,7 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
     </row>
-    <row r="87" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:22" ht="12" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4003,7 +2721,7 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
     </row>
-    <row r="88" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:22" ht="12" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4027,7 +2745,7 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
     </row>
-    <row r="89" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:22" ht="12" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4051,7 +2769,7 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
     </row>
-    <row r="90" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:22" ht="12" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4075,7 +2793,7 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
     </row>
-    <row r="91" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:22" ht="12" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4099,7 +2817,7 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
     </row>
-    <row r="92" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:22" ht="12" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4123,7 +2841,7 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
     </row>
-    <row r="93" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:22" ht="12" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4147,7 +2865,7 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
     </row>
-    <row r="94" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:22" ht="12" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4171,7 +2889,7 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
     </row>
-    <row r="95" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:22" ht="12" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4195,7 +2913,7 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
     </row>
-    <row r="96" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:22" ht="12" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4219,7 +2937,7 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
     </row>
-    <row r="97" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:22" ht="12" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4243,7 +2961,7 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
     </row>
-    <row r="98" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:22" ht="12" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4267,7 +2985,7 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
     </row>
-    <row r="99" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:22" ht="12" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4291,7 +3009,7 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
     </row>
-    <row r="100" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:22" ht="12" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4315,7 +3033,7 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
     </row>
-    <row r="101" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:22" ht="12" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4339,7 +3057,7 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
     </row>
-    <row r="102" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:22" ht="12" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4363,7 +3081,7 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
     </row>
-    <row r="103" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:22" ht="12" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4387,7 +3105,7 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
     </row>
-    <row r="104" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:22" ht="12" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4411,7 +3129,7 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
     </row>
-    <row r="105" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:22" ht="12" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4435,7 +3153,7 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
     </row>
-    <row r="106" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:22" ht="12" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4459,7 +3177,7 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
     </row>
-    <row r="107" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:22" ht="12" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4483,7 +3201,7 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
     </row>
-    <row r="108" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:22" ht="12" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4507,7 +3225,7 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
     </row>
-    <row r="109" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:22" ht="12" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4531,7 +3249,7 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
     </row>
-    <row r="110" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:22" ht="12" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4555,7 +3273,7 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
     </row>
-    <row r="111" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:22" ht="12" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4579,7 +3297,7 @@
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
     </row>
-    <row r="112" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:22" ht="12" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4603,7 +3321,7 @@
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
     </row>
-    <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:22" ht="12" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4627,7 +3345,7 @@
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
     </row>
-    <row r="114" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:22" ht="12" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4637,7 +3355,9 @@
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
-      <c r="J114" s="3"/>
+      <c r="J114" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
@@ -4651,7 +3371,7 @@
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
     </row>
-    <row r="115" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:22" ht="12" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4661,7 +3381,9 @@
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
-      <c r="J115" s="3"/>
+      <c r="J115" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
@@ -4675,7 +3397,7 @@
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
     </row>
-    <row r="116" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:22" ht="12" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4685,7 +3407,9 @@
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
-      <c r="J116" s="3"/>
+      <c r="J116" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
@@ -4699,7 +3423,7 @@
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
     </row>
-    <row r="117" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:22" ht="12" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4709,7 +3433,9 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
-      <c r="J117" s="3"/>
+      <c r="J117" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
@@ -4723,7 +3449,7 @@
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
     </row>
-    <row r="118" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:22" ht="12" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4747,7 +3473,7 @@
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
     </row>
-    <row r="119" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:22" ht="12" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4771,7 +3497,7 @@
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
     </row>
-    <row r="120" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:22" ht="12" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4795,7 +3521,7 @@
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
     </row>
-    <row r="121" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:22" ht="12" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4819,7 +3545,7 @@
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
     </row>
-    <row r="122" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:22" ht="12" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4843,7 +3569,7 @@
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
     </row>
-    <row r="123" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:22" ht="12" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4867,7 +3593,7 @@
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
     </row>
-    <row r="124" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:22" ht="12" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4891,7 +3617,7 @@
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
     </row>
-    <row r="125" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:22" ht="12" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4915,7 +3641,7 @@
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
     </row>
-    <row r="126" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:22" ht="12" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4939,7 +3665,7 @@
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
     </row>
-    <row r="127" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:22" ht="12" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4963,7 +3689,7 @@
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
     </row>
-    <row r="128" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:22" ht="12" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4987,7 +3713,7 @@
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
     </row>
-    <row r="129" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:22" ht="12" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5011,7 +3737,7 @@
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
     </row>
-    <row r="130" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:22" ht="12" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5035,7 +3761,7 @@
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
     </row>
-    <row r="131" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:22" ht="12" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5059,7 +3785,7 @@
       <c r="U131" s="3"/>
       <c r="V131" s="3"/>
     </row>
-    <row r="132" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:22" ht="12" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5083,7 +3809,7 @@
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
     </row>
-    <row r="133" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:22" ht="12" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5107,7 +3833,7 @@
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
     </row>
-    <row r="134" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:22" ht="12" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5131,7 +3857,7 @@
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
     </row>
-    <row r="135" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:22" ht="12" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5155,7 +3881,7 @@
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
     </row>
-    <row r="136" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:22" ht="12" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5179,7 +3905,7 @@
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
     </row>
-    <row r="137" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:22" ht="12" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5203,7 +3929,7 @@
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
     </row>
-    <row r="138" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:22" ht="12" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5227,7 +3953,7 @@
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
     </row>
-    <row r="139" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:22" ht="12" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5251,7 +3977,7 @@
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
     </row>
-    <row r="140" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:22" ht="12" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5275,7 +4001,7 @@
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
     </row>
-    <row r="141" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:22" ht="12" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5299,7 +4025,7 @@
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
     </row>
-    <row r="142" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:22" ht="12" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5323,7 +4049,7 @@
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
     </row>
-    <row r="143" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:22" ht="12" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5333,9 +4059,7 @@
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
-      <c r="J143" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
@@ -5349,7 +4073,7 @@
       <c r="U143" s="3"/>
       <c r="V143" s="3"/>
     </row>
-    <row r="144" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:22" ht="12" customHeight="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5359,9 +4083,7 @@
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
-      <c r="J144" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="J144" s="3"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
@@ -5375,7 +4097,7 @@
       <c r="U144" s="3"/>
       <c r="V144" s="3"/>
     </row>
-    <row r="145" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:22" ht="12" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5385,9 +4107,7 @@
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
-      <c r="J145" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
@@ -5401,7 +4121,7 @@
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
     </row>
-    <row r="146" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:22" ht="12" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5411,9 +4131,7 @@
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
-      <c r="J146" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
@@ -5427,7 +4145,7 @@
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
     </row>
-    <row r="147" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:22" ht="12" customHeight="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5451,7 +4169,7 @@
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
     </row>
-    <row r="148" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:22" ht="12" customHeight="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5475,7 +4193,7 @@
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
     </row>
-    <row r="149" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:22" ht="12" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5499,7 +4217,7 @@
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
     </row>
-    <row r="150" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:22" ht="12" customHeight="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5523,7 +4241,7 @@
       <c r="U150" s="3"/>
       <c r="V150" s="3"/>
     </row>
-    <row r="151" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:22" ht="12" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5547,7 +4265,7 @@
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
     </row>
-    <row r="152" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:22" ht="12" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -5571,7 +4289,7 @@
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
     </row>
-    <row r="153" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:22" ht="12" customHeight="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5595,7 +4313,7 @@
       <c r="U153" s="3"/>
       <c r="V153" s="3"/>
     </row>
-    <row r="154" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:22" ht="12" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5619,7 +4337,7 @@
       <c r="U154" s="3"/>
       <c r="V154" s="3"/>
     </row>
-    <row r="155" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:22" ht="12" customHeight="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5643,7 +4361,7 @@
       <c r="U155" s="3"/>
       <c r="V155" s="3"/>
     </row>
-    <row r="156" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:22" ht="12" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5667,7 +4385,7 @@
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
     </row>
-    <row r="157" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:22" ht="12" customHeight="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5691,7 +4409,7 @@
       <c r="U157" s="3"/>
       <c r="V157" s="3"/>
     </row>
-    <row r="158" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:22" ht="12" customHeight="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5715,7 +4433,7 @@
       <c r="U158" s="3"/>
       <c r="V158" s="3"/>
     </row>
-    <row r="159" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:22" ht="12" customHeight="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5739,7 +4457,7 @@
       <c r="U159" s="3"/>
       <c r="V159" s="3"/>
     </row>
-    <row r="160" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:22" ht="12" customHeight="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5763,7 +4481,7 @@
       <c r="U160" s="3"/>
       <c r="V160" s="3"/>
     </row>
-    <row r="161" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:22" ht="12" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5787,7 +4505,7 @@
       <c r="U161" s="3"/>
       <c r="V161" s="3"/>
     </row>
-    <row r="162" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:22" ht="12" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5811,7 +4529,7 @@
       <c r="U162" s="3"/>
       <c r="V162" s="3"/>
     </row>
-    <row r="163" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:22" ht="12" customHeight="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5835,7 +4553,7 @@
       <c r="U163" s="3"/>
       <c r="V163" s="3"/>
     </row>
-    <row r="164" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:22" ht="12" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5859,7 +4577,7 @@
       <c r="U164" s="3"/>
       <c r="V164" s="3"/>
     </row>
-    <row r="165" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:22" ht="12" customHeight="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5883,7 +4601,7 @@
       <c r="U165" s="3"/>
       <c r="V165" s="3"/>
     </row>
-    <row r="166" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:22" ht="12" customHeight="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5907,7 +4625,7 @@
       <c r="U166" s="3"/>
       <c r="V166" s="3"/>
     </row>
-    <row r="167" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:22" ht="12" customHeight="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5931,7 +4649,7 @@
       <c r="U167" s="3"/>
       <c r="V167" s="3"/>
     </row>
-    <row r="168" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:22" ht="12" customHeight="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5955,7 +4673,7 @@
       <c r="U168" s="3"/>
       <c r="V168" s="3"/>
     </row>
-    <row r="169" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:22" ht="12" customHeight="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5979,7 +4697,7 @@
       <c r="U169" s="3"/>
       <c r="V169" s="3"/>
     </row>
-    <row r="170" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:22" ht="12" customHeight="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6003,7 +4721,7 @@
       <c r="U170" s="3"/>
       <c r="V170" s="3"/>
     </row>
-    <row r="171" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:22" ht="12" customHeight="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6027,7 +4745,7 @@
       <c r="U171" s="3"/>
       <c r="V171" s="3"/>
     </row>
-    <row r="172" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:22" ht="12" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6051,7 +4769,7 @@
       <c r="U172" s="3"/>
       <c r="V172" s="3"/>
     </row>
-    <row r="173" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:22" ht="12" customHeight="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6075,7 +4793,7 @@
       <c r="U173" s="3"/>
       <c r="V173" s="3"/>
     </row>
-    <row r="174" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:22" ht="12" customHeight="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6099,7 +4817,7 @@
       <c r="U174" s="3"/>
       <c r="V174" s="3"/>
     </row>
-    <row r="175" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:22" ht="12" customHeight="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6123,7 +4841,7 @@
       <c r="U175" s="3"/>
       <c r="V175" s="3"/>
     </row>
-    <row r="176" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:22" ht="12" customHeight="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6147,7 +4865,7 @@
       <c r="U176" s="3"/>
       <c r="V176" s="3"/>
     </row>
-    <row r="177" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:22" ht="12" customHeight="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6171,7 +4889,7 @@
       <c r="U177" s="3"/>
       <c r="V177" s="3"/>
     </row>
-    <row r="178" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:22" ht="12" customHeight="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6195,7 +4913,7 @@
       <c r="U178" s="3"/>
       <c r="V178" s="3"/>
     </row>
-    <row r="179" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:22" ht="12" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6219,7 +4937,7 @@
       <c r="U179" s="3"/>
       <c r="V179" s="3"/>
     </row>
-    <row r="180" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:22" ht="12" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6243,7 +4961,7 @@
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
     </row>
-    <row r="181" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:22" ht="12" customHeight="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6267,7 +4985,7 @@
       <c r="U181" s="3"/>
       <c r="V181" s="3"/>
     </row>
-    <row r="182" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:22" ht="12" customHeight="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6291,7 +5009,7 @@
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
     </row>
-    <row r="183" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:22" ht="12" customHeight="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6315,7 +5033,7 @@
       <c r="U183" s="3"/>
       <c r="V183" s="3"/>
     </row>
-    <row r="184" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:22" ht="12" customHeight="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6339,7 +5057,7 @@
       <c r="U184" s="3"/>
       <c r="V184" s="3"/>
     </row>
-    <row r="185" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:22" ht="12" customHeight="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6363,7 +5081,7 @@
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
     </row>
-    <row r="186" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:22" ht="12" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6387,7 +5105,7 @@
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
     </row>
-    <row r="187" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:22" ht="12" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6411,7 +5129,7 @@
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
     </row>
-    <row r="188" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:22" ht="12" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6435,7 +5153,7 @@
       <c r="U188" s="3"/>
       <c r="V188" s="3"/>
     </row>
-    <row r="189" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:22" ht="12" customHeight="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6459,7 +5177,7 @@
       <c r="U189" s="3"/>
       <c r="V189" s="3"/>
     </row>
-    <row r="190" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:22" ht="12" customHeight="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6483,7 +5201,7 @@
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
     </row>
-    <row r="191" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:22" ht="12" customHeight="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6507,7 +5225,7 @@
       <c r="U191" s="3"/>
       <c r="V191" s="3"/>
     </row>
-    <row r="192" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:22" ht="12" customHeight="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6531,7 +5249,7 @@
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
     </row>
-    <row r="193" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:22" ht="12" customHeight="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6555,7 +5273,7 @@
       <c r="U193" s="3"/>
       <c r="V193" s="3"/>
     </row>
-    <row r="194" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:22" ht="12" customHeight="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6579,7 +5297,7 @@
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
     </row>
-    <row r="195" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:22" ht="12" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6603,7 +5321,7 @@
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
     </row>
-    <row r="196" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:22" ht="12" customHeight="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6627,7 +5345,7 @@
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
     </row>
-    <row r="197" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:22" ht="12" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6651,7 +5369,7 @@
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
     </row>
-    <row r="198" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:22" ht="12" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6675,7 +5393,7 @@
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
     </row>
-    <row r="199" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:22" ht="12" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6699,7 +5417,7 @@
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
     </row>
-    <row r="200" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:22" ht="12" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6723,7 +5441,7 @@
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
     </row>
-    <row r="201" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:22" ht="12" customHeight="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6747,7 +5465,7 @@
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
     </row>
-    <row r="202" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:22" ht="12" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6771,7 +5489,7 @@
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
     </row>
-    <row r="203" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:22" ht="12" customHeight="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6795,7 +5513,7 @@
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
     </row>
-    <row r="204" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:22" ht="12" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6819,7 +5537,7 @@
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
     </row>
-    <row r="205" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:22" ht="12" customHeight="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6843,7 +5561,7 @@
       <c r="U205" s="3"/>
       <c r="V205" s="3"/>
     </row>
-    <row r="206" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:22" ht="12" customHeight="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6867,7 +5585,7 @@
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
     </row>
-    <row r="207" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:22" ht="12" customHeight="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6891,7 +5609,7 @@
       <c r="U207" s="3"/>
       <c r="V207" s="3"/>
     </row>
-    <row r="208" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:22" ht="12" customHeight="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6915,7 +5633,7 @@
       <c r="U208" s="3"/>
       <c r="V208" s="3"/>
     </row>
-    <row r="209" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:22" ht="12" customHeight="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6939,7 +5657,7 @@
       <c r="U209" s="3"/>
       <c r="V209" s="3"/>
     </row>
-    <row r="210" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:22" ht="12" customHeight="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6963,7 +5681,7 @@
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
     </row>
-    <row r="211" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:22" ht="12" customHeight="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6987,7 +5705,7 @@
       <c r="U211" s="3"/>
       <c r="V211" s="3"/>
     </row>
-    <row r="212" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:22" ht="12" customHeight="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -7011,7 +5729,7 @@
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
     </row>
-    <row r="213" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:22" ht="12" customHeight="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -7035,7 +5753,7 @@
       <c r="U213" s="3"/>
       <c r="V213" s="3"/>
     </row>
-    <row r="214" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:22" ht="12" customHeight="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -7059,7 +5777,7 @@
       <c r="U214" s="3"/>
       <c r="V214" s="3"/>
     </row>
-    <row r="215" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:22" ht="12" customHeight="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -7083,7 +5801,7 @@
       <c r="U215" s="3"/>
       <c r="V215" s="3"/>
     </row>
-    <row r="216" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:22" ht="12" customHeight="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7107,7 +5825,7 @@
       <c r="U216" s="3"/>
       <c r="V216" s="3"/>
     </row>
-    <row r="217" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:22" ht="12" customHeight="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7131,7 +5849,7 @@
       <c r="U217" s="3"/>
       <c r="V217" s="3"/>
     </row>
-    <row r="218" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:22" ht="12" customHeight="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -7155,7 +5873,7 @@
       <c r="U218" s="3"/>
       <c r="V218" s="3"/>
     </row>
-    <row r="219" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:22" ht="12" customHeight="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -7179,7 +5897,7 @@
       <c r="U219" s="3"/>
       <c r="V219" s="3"/>
     </row>
-    <row r="220" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:22" ht="12" customHeight="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -7203,7 +5921,7 @@
       <c r="U220" s="3"/>
       <c r="V220" s="3"/>
     </row>
-    <row r="221" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:22" ht="12" customHeight="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -7227,7 +5945,7 @@
       <c r="U221" s="3"/>
       <c r="V221" s="3"/>
     </row>
-    <row r="222" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:22" ht="12" customHeight="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -7251,7 +5969,7 @@
       <c r="U222" s="3"/>
       <c r="V222" s="3"/>
     </row>
-    <row r="223" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:22" ht="12" customHeight="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -7275,7 +5993,7 @@
       <c r="U223" s="3"/>
       <c r="V223" s="3"/>
     </row>
-    <row r="224" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:22" ht="12" customHeight="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -7299,7 +6017,7 @@
       <c r="U224" s="3"/>
       <c r="V224" s="3"/>
     </row>
-    <row r="225" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:22" ht="12" customHeight="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -7323,7 +6041,7 @@
       <c r="U225" s="3"/>
       <c r="V225" s="3"/>
     </row>
-    <row r="226" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:22" ht="12" customHeight="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -7347,7 +6065,7 @@
       <c r="U226" s="3"/>
       <c r="V226" s="3"/>
     </row>
-    <row r="227" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:22" ht="12" customHeight="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -7371,7 +6089,7 @@
       <c r="U227" s="3"/>
       <c r="V227" s="3"/>
     </row>
-    <row r="228" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:22" ht="12" customHeight="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -7395,7 +6113,7 @@
       <c r="U228" s="3"/>
       <c r="V228" s="3"/>
     </row>
-    <row r="229" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:22" ht="12" customHeight="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7419,7 +6137,7 @@
       <c r="U229" s="3"/>
       <c r="V229" s="3"/>
     </row>
-    <row r="230" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:22" ht="12" customHeight="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7443,7 +6161,7 @@
       <c r="U230" s="3"/>
       <c r="V230" s="3"/>
     </row>
-    <row r="231" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:22" ht="12" customHeight="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7467,7 +6185,7 @@
       <c r="U231" s="3"/>
       <c r="V231" s="3"/>
     </row>
-    <row r="232" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:22" ht="12" customHeight="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -7491,7 +6209,7 @@
       <c r="U232" s="3"/>
       <c r="V232" s="3"/>
     </row>
-    <row r="233" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:22" ht="12" customHeight="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -7515,7 +6233,7 @@
       <c r="U233" s="3"/>
       <c r="V233" s="3"/>
     </row>
-    <row r="234" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:22" ht="12" customHeight="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -7539,7 +6257,7 @@
       <c r="U234" s="3"/>
       <c r="V234" s="3"/>
     </row>
-    <row r="235" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:22" ht="12" customHeight="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7563,7 +6281,7 @@
       <c r="U235" s="3"/>
       <c r="V235" s="3"/>
     </row>
-    <row r="236" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:22" ht="12" customHeight="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7587,7 +6305,7 @@
       <c r="U236" s="3"/>
       <c r="V236" s="3"/>
     </row>
-    <row r="237" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:22" ht="12" customHeight="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7611,7 +6329,7 @@
       <c r="U237" s="3"/>
       <c r="V237" s="3"/>
     </row>
-    <row r="238" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:22" ht="12" customHeight="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7635,7 +6353,7 @@
       <c r="U238" s="3"/>
       <c r="V238" s="3"/>
     </row>
-    <row r="239" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:22" ht="12" customHeight="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7659,7 +6377,7 @@
       <c r="U239" s="3"/>
       <c r="V239" s="3"/>
     </row>
-    <row r="240" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:22" ht="12" customHeight="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7683,7 +6401,7 @@
       <c r="U240" s="3"/>
       <c r="V240" s="3"/>
     </row>
-    <row r="241" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:22" ht="12" customHeight="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7707,7 +6425,7 @@
       <c r="U241" s="3"/>
       <c r="V241" s="3"/>
     </row>
-    <row r="242" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:22" ht="12" customHeight="1">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7731,7 +6449,7 @@
       <c r="U242" s="3"/>
       <c r="V242" s="3"/>
     </row>
-    <row r="243" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:22" ht="12" customHeight="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7755,7 +6473,7 @@
       <c r="U243" s="3"/>
       <c r="V243" s="3"/>
     </row>
-    <row r="244" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:22" ht="12" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7779,7 +6497,7 @@
       <c r="U244" s="3"/>
       <c r="V244" s="3"/>
     </row>
-    <row r="245" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:22" ht="12" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7803,7 +6521,7 @@
       <c r="U245" s="3"/>
       <c r="V245" s="3"/>
     </row>
-    <row r="246" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:22" ht="12" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7827,7 +6545,7 @@
       <c r="U246" s="3"/>
       <c r="V246" s="3"/>
     </row>
-    <row r="247" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:22" ht="12" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7851,7 +6569,7 @@
       <c r="U247" s="3"/>
       <c r="V247" s="3"/>
     </row>
-    <row r="248" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:22" ht="12" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7875,7 +6593,7 @@
       <c r="U248" s="3"/>
       <c r="V248" s="3"/>
     </row>
-    <row r="249" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:22" ht="12" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7899,7 +6617,7 @@
       <c r="U249" s="3"/>
       <c r="V249" s="3"/>
     </row>
-    <row r="250" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:22" ht="12" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7923,7 +6641,7 @@
       <c r="U250" s="3"/>
       <c r="V250" s="3"/>
     </row>
-    <row r="251" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:22" ht="12" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7947,7 +6665,7 @@
       <c r="U251" s="3"/>
       <c r="V251" s="3"/>
     </row>
-    <row r="252" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:22" ht="12" customHeight="1">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7971,7 +6689,7 @@
       <c r="U252" s="3"/>
       <c r="V252" s="3"/>
     </row>
-    <row r="253" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:22" ht="12" customHeight="1">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7995,7 +6713,7 @@
       <c r="U253" s="3"/>
       <c r="V253" s="3"/>
     </row>
-    <row r="254" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:22" ht="12" customHeight="1">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -8019,7 +6737,7 @@
       <c r="U254" s="3"/>
       <c r="V254" s="3"/>
     </row>
-    <row r="255" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:22" ht="12" customHeight="1">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -8043,7 +6761,7 @@
       <c r="U255" s="3"/>
       <c r="V255" s="3"/>
     </row>
-    <row r="256" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:22" ht="12" customHeight="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -8067,7 +6785,7 @@
       <c r="U256" s="3"/>
       <c r="V256" s="3"/>
     </row>
-    <row r="257" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:22" ht="12" customHeight="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -8091,7 +6809,7 @@
       <c r="U257" s="3"/>
       <c r="V257" s="3"/>
     </row>
-    <row r="258" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:22" ht="12" customHeight="1">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -8115,7 +6833,7 @@
       <c r="U258" s="3"/>
       <c r="V258" s="3"/>
     </row>
-    <row r="259" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:22" ht="12" customHeight="1">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -8139,7 +6857,7 @@
       <c r="U259" s="3"/>
       <c r="V259" s="3"/>
     </row>
-    <row r="260" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:22" ht="12" customHeight="1">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -8163,7 +6881,7 @@
       <c r="U260" s="3"/>
       <c r="V260" s="3"/>
     </row>
-    <row r="261" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:22" ht="12" customHeight="1">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -8187,7 +6905,7 @@
       <c r="U261" s="3"/>
       <c r="V261" s="3"/>
     </row>
-    <row r="262" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:22" ht="12" customHeight="1">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -8211,7 +6929,7 @@
       <c r="U262" s="3"/>
       <c r="V262" s="3"/>
     </row>
-    <row r="263" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:22" ht="12" customHeight="1">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -8235,7 +6953,7 @@
       <c r="U263" s="3"/>
       <c r="V263" s="3"/>
     </row>
-    <row r="264" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:22" ht="12" customHeight="1">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -8259,7 +6977,7 @@
       <c r="U264" s="3"/>
       <c r="V264" s="3"/>
     </row>
-    <row r="265" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:22" ht="12" customHeight="1">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -8283,7 +7001,7 @@
       <c r="U265" s="3"/>
       <c r="V265" s="3"/>
     </row>
-    <row r="266" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:22" ht="12" customHeight="1">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -8307,7 +7025,7 @@
       <c r="U266" s="3"/>
       <c r="V266" s="3"/>
     </row>
-    <row r="267" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:22" ht="12" customHeight="1">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -8331,7 +7049,7 @@
       <c r="U267" s="3"/>
       <c r="V267" s="3"/>
     </row>
-    <row r="268" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:22" ht="12" customHeight="1">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -8355,7 +7073,7 @@
       <c r="U268" s="3"/>
       <c r="V268" s="3"/>
     </row>
-    <row r="269" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:22" ht="12" customHeight="1">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -8379,7 +7097,7 @@
       <c r="U269" s="3"/>
       <c r="V269" s="3"/>
     </row>
-    <row r="270" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:22" ht="12" customHeight="1">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -8403,7 +7121,7 @@
       <c r="U270" s="3"/>
       <c r="V270" s="3"/>
     </row>
-    <row r="271" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:22" ht="12" customHeight="1">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -8427,7 +7145,7 @@
       <c r="U271" s="3"/>
       <c r="V271" s="3"/>
     </row>
-    <row r="272" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:22" ht="12" customHeight="1">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -8451,7 +7169,7 @@
       <c r="U272" s="3"/>
       <c r="V272" s="3"/>
     </row>
-    <row r="273" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:22" ht="12" customHeight="1">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -8475,7 +7193,7 @@
       <c r="U273" s="3"/>
       <c r="V273" s="3"/>
     </row>
-    <row r="274" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:22" ht="12" customHeight="1">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8499,7 +7217,7 @@
       <c r="U274" s="3"/>
       <c r="V274" s="3"/>
     </row>
-    <row r="275" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:22" ht="12" customHeight="1">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -8523,7 +7241,7 @@
       <c r="U275" s="3"/>
       <c r="V275" s="3"/>
     </row>
-    <row r="276" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:22" ht="12" customHeight="1">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8547,7 +7265,7 @@
       <c r="U276" s="3"/>
       <c r="V276" s="3"/>
     </row>
-    <row r="277" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:22" ht="12" customHeight="1">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8571,7 +7289,7 @@
       <c r="U277" s="3"/>
       <c r="V277" s="3"/>
     </row>
-    <row r="278" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:22" ht="12" customHeight="1">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8595,7 +7313,7 @@
       <c r="U278" s="3"/>
       <c r="V278" s="3"/>
     </row>
-    <row r="279" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:22" ht="12" customHeight="1">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8619,7 +7337,7 @@
       <c r="U279" s="3"/>
       <c r="V279" s="3"/>
     </row>
-    <row r="280" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:22" ht="12" customHeight="1">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8643,7 +7361,7 @@
       <c r="U280" s="3"/>
       <c r="V280" s="3"/>
     </row>
-    <row r="281" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:22" ht="12" customHeight="1">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8667,7 +7385,7 @@
       <c r="U281" s="3"/>
       <c r="V281" s="3"/>
     </row>
-    <row r="282" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:22" ht="12" customHeight="1">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8691,7 +7409,7 @@
       <c r="U282" s="3"/>
       <c r="V282" s="3"/>
     </row>
-    <row r="283" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:22" ht="12" customHeight="1">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8715,7 +7433,7 @@
       <c r="U283" s="3"/>
       <c r="V283" s="3"/>
     </row>
-    <row r="284" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:22" ht="12" customHeight="1">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8739,7 +7457,7 @@
       <c r="U284" s="3"/>
       <c r="V284" s="3"/>
     </row>
-    <row r="285" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:22" ht="12" customHeight="1">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8763,7 +7481,7 @@
       <c r="U285" s="3"/>
       <c r="V285" s="3"/>
     </row>
-    <row r="286" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:22" ht="12" customHeight="1">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8787,7 +7505,7 @@
       <c r="U286" s="3"/>
       <c r="V286" s="3"/>
     </row>
-    <row r="287" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:22" ht="12" customHeight="1">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8811,7 +7529,7 @@
       <c r="U287" s="3"/>
       <c r="V287" s="3"/>
     </row>
-    <row r="288" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:22" ht="12" customHeight="1">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8835,7 +7553,7 @@
       <c r="U288" s="3"/>
       <c r="V288" s="3"/>
     </row>
-    <row r="289" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:22" ht="12" customHeight="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8859,7 +7577,7 @@
       <c r="U289" s="3"/>
       <c r="V289" s="3"/>
     </row>
-    <row r="290" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:22" ht="12" customHeight="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -8883,7 +7601,7 @@
       <c r="U290" s="3"/>
       <c r="V290" s="3"/>
     </row>
-    <row r="291" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:22" ht="12" customHeight="1">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -8907,7 +7625,7 @@
       <c r="U291" s="3"/>
       <c r="V291" s="3"/>
     </row>
-    <row r="292" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:22" ht="12" customHeight="1">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -8931,7 +7649,7 @@
       <c r="U292" s="3"/>
       <c r="V292" s="3"/>
     </row>
-    <row r="293" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:22" ht="12" customHeight="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -8955,7 +7673,7 @@
       <c r="U293" s="3"/>
       <c r="V293" s="3"/>
     </row>
-    <row r="294" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:22" ht="12" customHeight="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -8979,7 +7697,7 @@
       <c r="U294" s="3"/>
       <c r="V294" s="3"/>
     </row>
-    <row r="295" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:22" ht="12" customHeight="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -9003,7 +7721,7 @@
       <c r="U295" s="3"/>
       <c r="V295" s="3"/>
     </row>
-    <row r="296" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:22" ht="12" customHeight="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -9027,7 +7745,7 @@
       <c r="U296" s="3"/>
       <c r="V296" s="3"/>
     </row>
-    <row r="297" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:22" ht="12" customHeight="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -9051,7 +7769,7 @@
       <c r="U297" s="3"/>
       <c r="V297" s="3"/>
     </row>
-    <row r="298" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:22" ht="12" customHeight="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -9075,7 +7793,7 @@
       <c r="U298" s="3"/>
       <c r="V298" s="3"/>
     </row>
-    <row r="299" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:22" ht="12" customHeight="1">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -9099,7 +7817,7 @@
       <c r="U299" s="3"/>
       <c r="V299" s="3"/>
     </row>
-    <row r="300" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:22" ht="12" customHeight="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -9123,7 +7841,7 @@
       <c r="U300" s="3"/>
       <c r="V300" s="3"/>
     </row>
-    <row r="301" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:22" ht="12" customHeight="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -9147,7 +7865,7 @@
       <c r="U301" s="3"/>
       <c r="V301" s="3"/>
     </row>
-    <row r="302" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:22" ht="12" customHeight="1">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -9171,7 +7889,7 @@
       <c r="U302" s="3"/>
       <c r="V302" s="3"/>
     </row>
-    <row r="303" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:22" ht="12" customHeight="1">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -9195,7 +7913,7 @@
       <c r="U303" s="3"/>
       <c r="V303" s="3"/>
     </row>
-    <row r="304" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:22" ht="12" customHeight="1">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -9219,7 +7937,7 @@
       <c r="U304" s="3"/>
       <c r="V304" s="3"/>
     </row>
-    <row r="305" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:22" ht="12" customHeight="1">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -9243,7 +7961,7 @@
       <c r="U305" s="3"/>
       <c r="V305" s="3"/>
     </row>
-    <row r="306" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:22" ht="12" customHeight="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -9267,7 +7985,7 @@
       <c r="U306" s="3"/>
       <c r="V306" s="3"/>
     </row>
-    <row r="307" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:22" ht="12" customHeight="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -9291,7 +8009,7 @@
       <c r="U307" s="3"/>
       <c r="V307" s="3"/>
     </row>
-    <row r="308" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:22" ht="12" customHeight="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -9315,7 +8033,7 @@
       <c r="U308" s="3"/>
       <c r="V308" s="3"/>
     </row>
-    <row r="309" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:22" ht="12" customHeight="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -9339,7 +8057,7 @@
       <c r="U309" s="3"/>
       <c r="V309" s="3"/>
     </row>
-    <row r="310" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:22" ht="12" customHeight="1">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -9363,7 +8081,7 @@
       <c r="U310" s="3"/>
       <c r="V310" s="3"/>
     </row>
-    <row r="311" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:22" ht="12" customHeight="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -9387,7 +8105,7 @@
       <c r="U311" s="3"/>
       <c r="V311" s="3"/>
     </row>
-    <row r="312" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:22" ht="12" customHeight="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -9411,7 +8129,7 @@
       <c r="U312" s="3"/>
       <c r="V312" s="3"/>
     </row>
-    <row r="313" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:22" ht="12" customHeight="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -9435,7 +8153,7 @@
       <c r="U313" s="3"/>
       <c r="V313" s="3"/>
     </row>
-    <row r="314" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:22" ht="12" customHeight="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -9459,7 +8177,7 @@
       <c r="U314" s="3"/>
       <c r="V314" s="3"/>
     </row>
-    <row r="315" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:22" ht="12" customHeight="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -9483,7 +8201,7 @@
       <c r="U315" s="3"/>
       <c r="V315" s="3"/>
     </row>
-    <row r="316" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:22" ht="12" customHeight="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -9507,7 +8225,7 @@
       <c r="U316" s="3"/>
       <c r="V316" s="3"/>
     </row>
-    <row r="317" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:22" ht="12" customHeight="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -9531,1361 +8249,652 @@
       <c r="U317" s="3"/>
       <c r="V317" s="3"/>
     </row>
-    <row r="318" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A318" s="2"/>
-      <c r="B318" s="2"/>
-      <c r="C318" s="2"/>
-      <c r="D318" s="2"/>
-      <c r="E318" s="2"/>
-      <c r="F318" s="2"/>
-      <c r="G318" s="2"/>
-      <c r="H318" s="2"/>
-      <c r="I318" s="2"/>
-      <c r="J318" s="3"/>
-      <c r="K318" s="3"/>
-      <c r="L318" s="3"/>
-      <c r="M318" s="3"/>
-      <c r="N318" s="3"/>
-      <c r="O318" s="3"/>
-      <c r="P318" s="3"/>
-      <c r="Q318" s="3"/>
-      <c r="R318" s="3"/>
-      <c r="S318" s="3"/>
-      <c r="T318" s="3"/>
-      <c r="U318" s="3"/>
-      <c r="V318" s="3"/>
-    </row>
-    <row r="319" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A319" s="2"/>
-      <c r="B319" s="2"/>
-      <c r="C319" s="2"/>
-      <c r="D319" s="2"/>
-      <c r="E319" s="2"/>
-      <c r="F319" s="2"/>
-      <c r="G319" s="2"/>
-      <c r="H319" s="2"/>
-      <c r="I319" s="2"/>
-      <c r="J319" s="3"/>
-      <c r="K319" s="3"/>
-      <c r="L319" s="3"/>
-      <c r="M319" s="3"/>
-      <c r="N319" s="3"/>
-      <c r="O319" s="3"/>
-      <c r="P319" s="3"/>
-      <c r="Q319" s="3"/>
-      <c r="R319" s="3"/>
-      <c r="S319" s="3"/>
-      <c r="T319" s="3"/>
-      <c r="U319" s="3"/>
-      <c r="V319" s="3"/>
-    </row>
-    <row r="320" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A320" s="2"/>
-      <c r="B320" s="2"/>
-      <c r="C320" s="2"/>
-      <c r="D320" s="2"/>
-      <c r="E320" s="2"/>
-      <c r="F320" s="2"/>
-      <c r="G320" s="2"/>
-      <c r="H320" s="2"/>
-      <c r="I320" s="2"/>
-      <c r="J320" s="3"/>
-      <c r="K320" s="3"/>
-      <c r="L320" s="3"/>
-      <c r="M320" s="3"/>
-      <c r="N320" s="3"/>
-      <c r="O320" s="3"/>
-      <c r="P320" s="3"/>
-      <c r="Q320" s="3"/>
-      <c r="R320" s="3"/>
-      <c r="S320" s="3"/>
-      <c r="T320" s="3"/>
-      <c r="U320" s="3"/>
-      <c r="V320" s="3"/>
-    </row>
-    <row r="321" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A321" s="2"/>
-      <c r="B321" s="2"/>
-      <c r="C321" s="2"/>
-      <c r="D321" s="2"/>
-      <c r="E321" s="2"/>
-      <c r="F321" s="2"/>
-      <c r="G321" s="2"/>
-      <c r="H321" s="2"/>
-      <c r="I321" s="2"/>
-      <c r="J321" s="3"/>
-      <c r="K321" s="3"/>
-      <c r="L321" s="3"/>
-      <c r="M321" s="3"/>
-      <c r="N321" s="3"/>
-      <c r="O321" s="3"/>
-      <c r="P321" s="3"/>
-      <c r="Q321" s="3"/>
-      <c r="R321" s="3"/>
-      <c r="S321" s="3"/>
-      <c r="T321" s="3"/>
-      <c r="U321" s="3"/>
-      <c r="V321" s="3"/>
-    </row>
-    <row r="322" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A322" s="2"/>
-      <c r="B322" s="2"/>
-      <c r="C322" s="2"/>
-      <c r="D322" s="2"/>
-      <c r="E322" s="2"/>
-      <c r="F322" s="2"/>
-      <c r="G322" s="2"/>
-      <c r="H322" s="2"/>
-      <c r="I322" s="2"/>
-      <c r="J322" s="3"/>
-      <c r="K322" s="3"/>
-      <c r="L322" s="3"/>
-      <c r="M322" s="3"/>
-      <c r="N322" s="3"/>
-      <c r="O322" s="3"/>
-      <c r="P322" s="3"/>
-      <c r="Q322" s="3"/>
-      <c r="R322" s="3"/>
-      <c r="S322" s="3"/>
-      <c r="T322" s="3"/>
-      <c r="U322" s="3"/>
-      <c r="V322" s="3"/>
-    </row>
-    <row r="323" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A323" s="2"/>
-      <c r="B323" s="2"/>
-      <c r="C323" s="2"/>
-      <c r="D323" s="2"/>
-      <c r="E323" s="2"/>
-      <c r="F323" s="2"/>
-      <c r="G323" s="2"/>
-      <c r="H323" s="2"/>
-      <c r="I323" s="2"/>
-      <c r="J323" s="3"/>
-      <c r="K323" s="3"/>
-      <c r="L323" s="3"/>
-      <c r="M323" s="3"/>
-      <c r="N323" s="3"/>
-      <c r="O323" s="3"/>
-      <c r="P323" s="3"/>
-      <c r="Q323" s="3"/>
-      <c r="R323" s="3"/>
-      <c r="S323" s="3"/>
-      <c r="T323" s="3"/>
-      <c r="U323" s="3"/>
-      <c r="V323" s="3"/>
-    </row>
-    <row r="324" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A324" s="2"/>
-      <c r="B324" s="2"/>
-      <c r="C324" s="2"/>
-      <c r="D324" s="2"/>
-      <c r="E324" s="2"/>
-      <c r="F324" s="2"/>
-      <c r="G324" s="2"/>
-      <c r="H324" s="2"/>
-      <c r="I324" s="2"/>
-      <c r="J324" s="3"/>
-      <c r="K324" s="3"/>
-      <c r="L324" s="3"/>
-      <c r="M324" s="3"/>
-      <c r="N324" s="3"/>
-      <c r="O324" s="3"/>
-      <c r="P324" s="3"/>
-      <c r="Q324" s="3"/>
-      <c r="R324" s="3"/>
-      <c r="S324" s="3"/>
-      <c r="T324" s="3"/>
-      <c r="U324" s="3"/>
-      <c r="V324" s="3"/>
-    </row>
-    <row r="325" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A325" s="2"/>
-      <c r="B325" s="2"/>
-      <c r="C325" s="2"/>
-      <c r="D325" s="2"/>
-      <c r="E325" s="2"/>
-      <c r="F325" s="2"/>
-      <c r="G325" s="2"/>
-      <c r="H325" s="2"/>
-      <c r="I325" s="2"/>
-      <c r="J325" s="3"/>
-      <c r="K325" s="3"/>
-      <c r="L325" s="3"/>
-      <c r="M325" s="3"/>
-      <c r="N325" s="3"/>
-      <c r="O325" s="3"/>
-      <c r="P325" s="3"/>
-      <c r="Q325" s="3"/>
-      <c r="R325" s="3"/>
-      <c r="S325" s="3"/>
-      <c r="T325" s="3"/>
-      <c r="U325" s="3"/>
-      <c r="V325" s="3"/>
-    </row>
-    <row r="326" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A326" s="2"/>
-      <c r="B326" s="2"/>
-      <c r="C326" s="2"/>
-      <c r="D326" s="2"/>
-      <c r="E326" s="2"/>
-      <c r="F326" s="2"/>
-      <c r="G326" s="2"/>
-      <c r="H326" s="2"/>
-      <c r="I326" s="2"/>
-      <c r="J326" s="3"/>
-      <c r="K326" s="3"/>
-      <c r="L326" s="3"/>
-      <c r="M326" s="3"/>
-      <c r="N326" s="3"/>
-      <c r="O326" s="3"/>
-      <c r="P326" s="3"/>
-      <c r="Q326" s="3"/>
-      <c r="R326" s="3"/>
-      <c r="S326" s="3"/>
-      <c r="T326" s="3"/>
-      <c r="U326" s="3"/>
-      <c r="V326" s="3"/>
-    </row>
-    <row r="327" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A327" s="2"/>
-      <c r="B327" s="2"/>
-      <c r="C327" s="2"/>
-      <c r="D327" s="2"/>
-      <c r="E327" s="2"/>
-      <c r="F327" s="2"/>
-      <c r="G327" s="2"/>
-      <c r="H327" s="2"/>
-      <c r="I327" s="2"/>
-      <c r="J327" s="3"/>
-      <c r="K327" s="3"/>
-      <c r="L327" s="3"/>
-      <c r="M327" s="3"/>
-      <c r="N327" s="3"/>
-      <c r="O327" s="3"/>
-      <c r="P327" s="3"/>
-      <c r="Q327" s="3"/>
-      <c r="R327" s="3"/>
-      <c r="S327" s="3"/>
-      <c r="T327" s="3"/>
-      <c r="U327" s="3"/>
-      <c r="V327" s="3"/>
-    </row>
-    <row r="328" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A328" s="2"/>
-      <c r="B328" s="2"/>
-      <c r="C328" s="2"/>
-      <c r="D328" s="2"/>
-      <c r="E328" s="2"/>
-      <c r="F328" s="2"/>
-      <c r="G328" s="2"/>
-      <c r="H328" s="2"/>
-      <c r="I328" s="2"/>
-      <c r="J328" s="3"/>
-      <c r="K328" s="3"/>
-      <c r="L328" s="3"/>
-      <c r="M328" s="3"/>
-      <c r="N328" s="3"/>
-      <c r="O328" s="3"/>
-      <c r="P328" s="3"/>
-      <c r="Q328" s="3"/>
-      <c r="R328" s="3"/>
-      <c r="S328" s="3"/>
-      <c r="T328" s="3"/>
-      <c r="U328" s="3"/>
-      <c r="V328" s="3"/>
-    </row>
-    <row r="329" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A329" s="2"/>
-      <c r="B329" s="2"/>
-      <c r="C329" s="2"/>
-      <c r="D329" s="2"/>
-      <c r="E329" s="2"/>
-      <c r="F329" s="2"/>
-      <c r="G329" s="2"/>
-      <c r="H329" s="2"/>
-      <c r="I329" s="2"/>
-      <c r="J329" s="3"/>
-      <c r="K329" s="3"/>
-      <c r="L329" s="3"/>
-      <c r="M329" s="3"/>
-      <c r="N329" s="3"/>
-      <c r="O329" s="3"/>
-      <c r="P329" s="3"/>
-      <c r="Q329" s="3"/>
-      <c r="R329" s="3"/>
-      <c r="S329" s="3"/>
-      <c r="T329" s="3"/>
-      <c r="U329" s="3"/>
-      <c r="V329" s="3"/>
-    </row>
-    <row r="330" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A330" s="2"/>
-      <c r="B330" s="2"/>
-      <c r="C330" s="2"/>
-      <c r="D330" s="2"/>
-      <c r="E330" s="2"/>
-      <c r="F330" s="2"/>
-      <c r="G330" s="2"/>
-      <c r="H330" s="2"/>
-      <c r="I330" s="2"/>
-      <c r="J330" s="3"/>
-      <c r="K330" s="3"/>
-      <c r="L330" s="3"/>
-      <c r="M330" s="3"/>
-      <c r="N330" s="3"/>
-      <c r="O330" s="3"/>
-      <c r="P330" s="3"/>
-      <c r="Q330" s="3"/>
-      <c r="R330" s="3"/>
-      <c r="S330" s="3"/>
-      <c r="T330" s="3"/>
-      <c r="U330" s="3"/>
-      <c r="V330" s="3"/>
-    </row>
-    <row r="331" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A331" s="2"/>
-      <c r="B331" s="2"/>
-      <c r="C331" s="2"/>
-      <c r="D331" s="2"/>
-      <c r="E331" s="2"/>
-      <c r="F331" s="2"/>
-      <c r="G331" s="2"/>
-      <c r="H331" s="2"/>
-      <c r="I331" s="2"/>
-      <c r="J331" s="3"/>
-      <c r="K331" s="3"/>
-      <c r="L331" s="3"/>
-      <c r="M331" s="3"/>
-      <c r="N331" s="3"/>
-      <c r="O331" s="3"/>
-      <c r="P331" s="3"/>
-      <c r="Q331" s="3"/>
-      <c r="R331" s="3"/>
-      <c r="S331" s="3"/>
-      <c r="T331" s="3"/>
-      <c r="U331" s="3"/>
-      <c r="V331" s="3"/>
-    </row>
-    <row r="332" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A332" s="2"/>
-      <c r="B332" s="2"/>
-      <c r="C332" s="2"/>
-      <c r="D332" s="2"/>
-      <c r="E332" s="2"/>
-      <c r="F332" s="2"/>
-      <c r="G332" s="2"/>
-      <c r="H332" s="2"/>
-      <c r="I332" s="2"/>
-      <c r="J332" s="3"/>
-      <c r="K332" s="3"/>
-      <c r="L332" s="3"/>
-      <c r="M332" s="3"/>
-      <c r="N332" s="3"/>
-      <c r="O332" s="3"/>
-      <c r="P332" s="3"/>
-      <c r="Q332" s="3"/>
-      <c r="R332" s="3"/>
-      <c r="S332" s="3"/>
-      <c r="T332" s="3"/>
-      <c r="U332" s="3"/>
-      <c r="V332" s="3"/>
-    </row>
-    <row r="333" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A333" s="2"/>
-      <c r="B333" s="2"/>
-      <c r="C333" s="2"/>
-      <c r="D333" s="2"/>
-      <c r="E333" s="2"/>
-      <c r="F333" s="2"/>
-      <c r="G333" s="2"/>
-      <c r="H333" s="2"/>
-      <c r="I333" s="2"/>
-      <c r="J333" s="3"/>
-      <c r="K333" s="3"/>
-      <c r="L333" s="3"/>
-      <c r="M333" s="3"/>
-      <c r="N333" s="3"/>
-      <c r="O333" s="3"/>
-      <c r="P333" s="3"/>
-      <c r="Q333" s="3"/>
-      <c r="R333" s="3"/>
-      <c r="S333" s="3"/>
-      <c r="T333" s="3"/>
-      <c r="U333" s="3"/>
-      <c r="V333" s="3"/>
-    </row>
-    <row r="334" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A334" s="2"/>
-      <c r="B334" s="2"/>
-      <c r="C334" s="2"/>
-      <c r="D334" s="2"/>
-      <c r="E334" s="2"/>
-      <c r="F334" s="2"/>
-      <c r="G334" s="2"/>
-      <c r="H334" s="2"/>
-      <c r="I334" s="2"/>
-      <c r="J334" s="3"/>
-      <c r="K334" s="3"/>
-      <c r="L334" s="3"/>
-      <c r="M334" s="3"/>
-      <c r="N334" s="3"/>
-      <c r="O334" s="3"/>
-      <c r="P334" s="3"/>
-      <c r="Q334" s="3"/>
-      <c r="R334" s="3"/>
-      <c r="S334" s="3"/>
-      <c r="T334" s="3"/>
-      <c r="U334" s="3"/>
-      <c r="V334" s="3"/>
-    </row>
-    <row r="335" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A335" s="2"/>
-      <c r="B335" s="2"/>
-      <c r="C335" s="2"/>
-      <c r="D335" s="2"/>
-      <c r="E335" s="2"/>
-      <c r="F335" s="2"/>
-      <c r="G335" s="2"/>
-      <c r="H335" s="2"/>
-      <c r="I335" s="2"/>
-      <c r="J335" s="3"/>
-      <c r="K335" s="3"/>
-      <c r="L335" s="3"/>
-      <c r="M335" s="3"/>
-      <c r="N335" s="3"/>
-      <c r="O335" s="3"/>
-      <c r="P335" s="3"/>
-      <c r="Q335" s="3"/>
-      <c r="R335" s="3"/>
-      <c r="S335" s="3"/>
-      <c r="T335" s="3"/>
-      <c r="U335" s="3"/>
-      <c r="V335" s="3"/>
-    </row>
-    <row r="336" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A336" s="2"/>
-      <c r="B336" s="2"/>
-      <c r="C336" s="2"/>
-      <c r="D336" s="2"/>
-      <c r="E336" s="2"/>
-      <c r="F336" s="2"/>
-      <c r="G336" s="2"/>
-      <c r="H336" s="2"/>
-      <c r="I336" s="2"/>
-      <c r="J336" s="3"/>
-      <c r="K336" s="3"/>
-      <c r="L336" s="3"/>
-      <c r="M336" s="3"/>
-      <c r="N336" s="3"/>
-      <c r="O336" s="3"/>
-      <c r="P336" s="3"/>
-      <c r="Q336" s="3"/>
-      <c r="R336" s="3"/>
-      <c r="S336" s="3"/>
-      <c r="T336" s="3"/>
-      <c r="U336" s="3"/>
-      <c r="V336" s="3"/>
-    </row>
-    <row r="337" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A337" s="2"/>
-      <c r="B337" s="2"/>
-      <c r="C337" s="2"/>
-      <c r="D337" s="2"/>
-      <c r="E337" s="2"/>
-      <c r="F337" s="2"/>
-      <c r="G337" s="2"/>
-      <c r="H337" s="2"/>
-      <c r="I337" s="2"/>
-      <c r="J337" s="3"/>
-      <c r="K337" s="3"/>
-      <c r="L337" s="3"/>
-      <c r="M337" s="3"/>
-      <c r="N337" s="3"/>
-      <c r="O337" s="3"/>
-      <c r="P337" s="3"/>
-      <c r="Q337" s="3"/>
-      <c r="R337" s="3"/>
-      <c r="S337" s="3"/>
-      <c r="T337" s="3"/>
-      <c r="U337" s="3"/>
-      <c r="V337" s="3"/>
-    </row>
-    <row r="338" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A338" s="2"/>
-      <c r="B338" s="2"/>
-      <c r="C338" s="2"/>
-      <c r="D338" s="2"/>
-      <c r="E338" s="2"/>
-      <c r="F338" s="2"/>
-      <c r="G338" s="2"/>
-      <c r="H338" s="2"/>
-      <c r="I338" s="2"/>
-      <c r="J338" s="3"/>
-      <c r="K338" s="3"/>
-      <c r="L338" s="3"/>
-      <c r="M338" s="3"/>
-      <c r="N338" s="3"/>
-      <c r="O338" s="3"/>
-      <c r="P338" s="3"/>
-      <c r="Q338" s="3"/>
-      <c r="R338" s="3"/>
-      <c r="S338" s="3"/>
-      <c r="T338" s="3"/>
-      <c r="U338" s="3"/>
-      <c r="V338" s="3"/>
-    </row>
-    <row r="339" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A339" s="2"/>
-      <c r="B339" s="2"/>
-      <c r="C339" s="2"/>
-      <c r="D339" s="2"/>
-      <c r="E339" s="2"/>
-      <c r="F339" s="2"/>
-      <c r="G339" s="2"/>
-      <c r="H339" s="2"/>
-      <c r="I339" s="2"/>
-      <c r="J339" s="3"/>
-      <c r="K339" s="3"/>
-      <c r="L339" s="3"/>
-      <c r="M339" s="3"/>
-      <c r="N339" s="3"/>
-      <c r="O339" s="3"/>
-      <c r="P339" s="3"/>
-      <c r="Q339" s="3"/>
-      <c r="R339" s="3"/>
-      <c r="S339" s="3"/>
-      <c r="T339" s="3"/>
-      <c r="U339" s="3"/>
-      <c r="V339" s="3"/>
-    </row>
-    <row r="340" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A340" s="2"/>
-      <c r="B340" s="2"/>
-      <c r="C340" s="2"/>
-      <c r="D340" s="2"/>
-      <c r="E340" s="2"/>
-      <c r="F340" s="2"/>
-      <c r="G340" s="2"/>
-      <c r="H340" s="2"/>
-      <c r="I340" s="2"/>
-      <c r="J340" s="3"/>
-      <c r="K340" s="3"/>
-      <c r="L340" s="3"/>
-      <c r="M340" s="3"/>
-      <c r="N340" s="3"/>
-      <c r="O340" s="3"/>
-      <c r="P340" s="3"/>
-      <c r="Q340" s="3"/>
-      <c r="R340" s="3"/>
-      <c r="S340" s="3"/>
-      <c r="T340" s="3"/>
-      <c r="U340" s="3"/>
-      <c r="V340" s="3"/>
-    </row>
-    <row r="341" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A341" s="2"/>
-      <c r="B341" s="2"/>
-      <c r="C341" s="2"/>
-      <c r="D341" s="2"/>
-      <c r="E341" s="2"/>
-      <c r="F341" s="2"/>
-      <c r="G341" s="2"/>
-      <c r="H341" s="2"/>
-      <c r="I341" s="2"/>
-      <c r="J341" s="3"/>
-      <c r="K341" s="3"/>
-      <c r="L341" s="3"/>
-      <c r="M341" s="3"/>
-      <c r="N341" s="3"/>
-      <c r="O341" s="3"/>
-      <c r="P341" s="3"/>
-      <c r="Q341" s="3"/>
-      <c r="R341" s="3"/>
-      <c r="S341" s="3"/>
-      <c r="T341" s="3"/>
-      <c r="U341" s="3"/>
-      <c r="V341" s="3"/>
-    </row>
-    <row r="342" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A342" s="2"/>
-      <c r="B342" s="2"/>
-      <c r="C342" s="2"/>
-      <c r="D342" s="2"/>
-      <c r="E342" s="2"/>
-      <c r="F342" s="2"/>
-      <c r="G342" s="2"/>
-      <c r="H342" s="2"/>
-      <c r="I342" s="2"/>
-      <c r="J342" s="3"/>
-      <c r="K342" s="3"/>
-      <c r="L342" s="3"/>
-      <c r="M342" s="3"/>
-      <c r="N342" s="3"/>
-      <c r="O342" s="3"/>
-      <c r="P342" s="3"/>
-      <c r="Q342" s="3"/>
-      <c r="R342" s="3"/>
-      <c r="S342" s="3"/>
-      <c r="T342" s="3"/>
-      <c r="U342" s="3"/>
-      <c r="V342" s="3"/>
-    </row>
-    <row r="343" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A343" s="2"/>
-      <c r="B343" s="2"/>
-      <c r="C343" s="2"/>
-      <c r="D343" s="2"/>
-      <c r="E343" s="2"/>
-      <c r="F343" s="2"/>
-      <c r="G343" s="2"/>
-      <c r="H343" s="2"/>
-      <c r="I343" s="2"/>
-      <c r="J343" s="3"/>
-      <c r="K343" s="3"/>
-      <c r="L343" s="3"/>
-      <c r="M343" s="3"/>
-      <c r="N343" s="3"/>
-      <c r="O343" s="3"/>
-      <c r="P343" s="3"/>
-      <c r="Q343" s="3"/>
-      <c r="R343" s="3"/>
-      <c r="S343" s="3"/>
-      <c r="T343" s="3"/>
-      <c r="U343" s="3"/>
-      <c r="V343" s="3"/>
-    </row>
-    <row r="344" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A344" s="2"/>
-      <c r="B344" s="2"/>
-      <c r="C344" s="2"/>
-      <c r="D344" s="2"/>
-      <c r="E344" s="2"/>
-      <c r="F344" s="2"/>
-      <c r="G344" s="2"/>
-      <c r="H344" s="2"/>
-      <c r="I344" s="2"/>
-      <c r="J344" s="3"/>
-      <c r="K344" s="3"/>
-      <c r="L344" s="3"/>
-      <c r="M344" s="3"/>
-      <c r="N344" s="3"/>
-      <c r="O344" s="3"/>
-      <c r="P344" s="3"/>
-      <c r="Q344" s="3"/>
-      <c r="R344" s="3"/>
-      <c r="S344" s="3"/>
-      <c r="T344" s="3"/>
-      <c r="U344" s="3"/>
-      <c r="V344" s="3"/>
-    </row>
-    <row r="345" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A345" s="2"/>
-      <c r="B345" s="2"/>
-      <c r="C345" s="2"/>
-      <c r="D345" s="2"/>
-      <c r="E345" s="2"/>
-      <c r="F345" s="2"/>
-      <c r="G345" s="2"/>
-      <c r="H345" s="2"/>
-      <c r="I345" s="2"/>
-      <c r="J345" s="3"/>
-      <c r="K345" s="3"/>
-      <c r="L345" s="3"/>
-      <c r="M345" s="3"/>
-      <c r="N345" s="3"/>
-      <c r="O345" s="3"/>
-      <c r="P345" s="3"/>
-      <c r="Q345" s="3"/>
-      <c r="R345" s="3"/>
-      <c r="S345" s="3"/>
-      <c r="T345" s="3"/>
-      <c r="U345" s="3"/>
-      <c r="V345" s="3"/>
-    </row>
-    <row r="346" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A346" s="2"/>
-      <c r="B346" s="2"/>
-      <c r="C346" s="2"/>
-      <c r="D346" s="2"/>
-      <c r="E346" s="2"/>
-      <c r="F346" s="2"/>
-      <c r="G346" s="2"/>
-      <c r="H346" s="2"/>
-      <c r="I346" s="2"/>
-      <c r="J346" s="3"/>
-      <c r="K346" s="3"/>
-      <c r="L346" s="3"/>
-      <c r="M346" s="3"/>
-      <c r="N346" s="3"/>
-      <c r="O346" s="3"/>
-      <c r="P346" s="3"/>
-      <c r="Q346" s="3"/>
-      <c r="R346" s="3"/>
-      <c r="S346" s="3"/>
-      <c r="T346" s="3"/>
-      <c r="U346" s="3"/>
-      <c r="V346" s="3"/>
-    </row>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="319" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="320" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.55"/>
+    <col min="1" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>